--- a/Testdata/TC_57.xlsx
+++ b/Testdata/TC_57.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>tDQAAB+LCAAAAAAAAAPtW1tvG8cV/iuEnuwHaparG6mON5BIySVKioJIxVJeguXuUNpqucvuRRLf3ACGncZFgSZx6zRt4aJFL4hdu2iLAHLzYwJLlp/8F3pmZi+zF0paWQFSVDYBc85tZs7MnPOd4Ri/dzg0S/vEcQ3bujVVmZamSsTSbN2wdm5N+d6gXJmfek/BK4caMddVRx0SD4RLoGW5i4eucWtq1/NGiwgdHBxMH8xM284OkiWpgrbara62S4Zq2bBcT7U0MhVp6edrTSm4rg/bxFN11VO55q2pZrc5XSeG1gBaW7XUHeJML/uuYRHXXbE8wzOISzUdonqk3mi/zyemyNPz0xWMMvRYctk3TJ3LJSQ5PZCDbknPGBJFlmSpLFXL8mxPqi3Sz+z0wkL1g1AxEsQt1fW6xNk3NEboeupwxNSlqjwr1eDvLEa5QmArdoCCO6a+QfYNl+h1YppuIY+gYAGXNA9mXcyZEkaCbmDo8kO47aij3Z7hmaSo+qrtEA0cdam+18hBxwn81xu1gNvbNRxv3FDHhW1tusTpjKg3iqkquGFb3pJJHG9zBItKdFhzYCie4xOMJjBjpYbhavDdsHyiKwPVdEWlBBPfsZ09d6RqZA0OLKI2DizTVnXYWZ7heobmxgYyHLzu2CMwCb0v26a+CmaDIeYwItNNC3xM+1227b209SQTs03AtgMs6lD1QvEMHXd37YOOZY67ft/VHKNP9MZyKJ3Lw/ToBdp13/XsIYwiJmFOEyjtNhrDHzhtaQ5uEM0Yqua6CY50lRkwlCDgJd+zB4ZXt01/aEUeTVHxHZhUjxxGk4zauAMLbFG/21bTCuW5p3NZSYUN+yDqM8tgfhDIS64W7rMsIy3cAFq4glkOWxQ6y1XDhGQgLodATW6M7i4hXu6u4BxM494qTS/K8pj2iVFMwbA5YYcDFSKnNF+Gjyz1JGmRfaDniI1XLD2Wq8jlmYogFzLxmj/s9OEU77M5KRXgpUgYZmEum6q1B9Q7hre7thSOPoeD+Zwnymd5GM7ryFTHjBz5RaThpqWZvk54GGhaA7Yp6dj4Mk5k4wypBQdbwao17o1HEHZdY9GDL7emIBEvup4DqX5K0Wzf8pwxjRcYBaLn6bh+32IdqOaFdQYO+YkPCGO86lta3dYv3pvOvbNpGd7FR2j7Dg+CF1dh3qPh0HcbhAYWFuovrK8VmZPrFBIfWmRoW4Z2cW+Dk+no9UtMxA1PlaCBJuytBhmovgkYxoMMtBMnlxQZL7l7aRmRhDcdMwwOCkWILkBETR9Oa5BbKQya1uwhJSBAZne6GInyFCBoZMXaaanWjg8pODqAaXoUmmj26Dmq5dLpRBk3FaXyhXB4oDkSUPgp7/jMY/yU28DFKCWHe2Q4sh3VbINjjNVgfQI4AZm6rXq7QQvCvkm00MkoVo20kiMLB36eGIvffBr0ZATxJEVkQnQuHIzGMjEN01m2Yf+addU0+g4PP2GWy+PBgsXYKQxUdHIFcVS4BlCQQGL6ERlTlBo3AjrbspWQwTcwjThKd2O2Ks9JM/OQ9GkbsxnfaNRvNsjIdg3PXSx1HCiBVGdcWoblg81ZqtvOaLG07vdNQ1ssrW6VmnCqDokOqYP5Kwje72ZKNIJXw1DJBtmGjZwgJPmQo3egFzMjFzFieaUNyG3XHAuS3ActWwPBty8fHP/0y5Onfzj5zT9PHj1/+/Lj46e/Pvnqm7cvvzh5/OzN3S/efPrv0ycPTz968uroP8f3vjr+xdfAol/uvaBf/vjo5MX9k4cfvfnlX1+/OOL+4ZZxT+2bhI2+t1ytSjNQ+8QkTJcIMfip+5rHaNvbDHVGbRyUSaxRX2nWb7eWWVSKiKE6j+CIVmBj24+bXT5j1hHbGCjcT1xE6YVRLmgnuEJGUGhFtE+S0iJ/kiL3xeujP78+ejpRO3BYDG0qtdoCRTRS5VzkU83IRciHVpq8vgjq2MpsWZory7IgnJLBG1COQzkR+ampKzMVqVapQcEeZQQ9OgF5QmlWYKmn7qCUHifVORqJtoDYDpnskPSI60VsfmyEBnfiyb8+Of375wmpwLsBJWkFBsdQA+0MhQ1mem2jV+p2NjfqK6XeSpfuk5gnyHHjZwgHvUeHT9w02aOZ2FJ5VG7uTMV0j7cd2x9lwkpMzZHMDTBZbkqT+SY7tJiXIx+s2pcP8hSCmTRiMKg0W93S0Io2GaPhBIeTBH5wBB9/8+rr+6+O/nT68T+OH/wKYt2bz54c3/vk+PlnCWtBn1FRDRsYjonYjPYzxLIgHaUo+E6XeXZP+lBIPwGRFiTrtmF5rlKZmWHFSNDEoFuh5ti/uDmElMgsM+cBPUXBP1TdlUMvOLLKGkZJAgx0pEI2tuOyLSLw6Bw7+c1vf8czwOn9vx3/7C/HDx+9Pvr96bMn/DydfP785OfPgvidDvFsLLQY5CCxxG4XtBI9ZyWa20vf3v20ZNleCSBJyWex5tu7jwVjdKAMvMSWAfJFA0kOISMqKlO9kjCUaAwJvUiFA4Q6TU4zkUSQnuyRocWdfFCmpmg+Z4wbzV7Zd0nJBrR1E2aSFI6VL6oXqPBkub4gyRU54PLR0Cn0VVdw/W3T7qtmKWSw2j0lktA6WyGWZf3dbnWWl1qxCB8EQBso9SV6AUG/4KYbgs5wewkU4AIY1HyTXrFkxLIsHH4TAhkK7ioGSzq9olYkSC9l9hESWEIC133H4WDICu65u/4IAHJ4qTWZz276BEy8xvGriJLjdrOR5ENb4EJaS7IpgfFZbApYPE41XXotwiHuGnVN3ARe4nYQ3BFcZXPctG/AMiAabFYcx3ZyI07MCcXagK4hiqDY45EMol1yJK7HaxUSwih3jcivEfn/JSKvZmLPNSK/RuTXiPz7h8grkxF55cOBOtfXyNxceW6+P1ee7dekck2u6GVNl6oykcmMqi/kg3X5OwXr4RrmXPJPHsSFk9SltsNZWzRnha86Wl59Tj87gp4T2c4v+9AZa3hdi13XYlddi1WiWizE8i7/USH1UwOEJ11ZlxvdTTjMDCsISW2717jR9Yc/KDWIRoZ94tykv+UISS9+CcSNR+0AzxNLX4f9bushnn9fNX2IAeA2/o0hS6XeWev2ltYgFQc/L6Vs5ZmOfkBMmt5eWdpobRczj8RpcOiZrkYEauTQOOItOYa3CwYMrTMi/DcOF0JjRi5SpVVfrFTK02KFYbquDqKKzRXIZessxIsKlIijKJUy0u0wgIl0JFQnSCgiUF7JgBI1AnrnegBNxPGTOeFI44STe3OQk49y5Sah91zh89F7GnIzysUBOUrkKZQF3DEJTcTSKAOYUT64nUDOqETbP5eYt6si0JFLDDsQYCDimANlkSS6mutaJAIt6Z2w3sWTPRIIKJt8kySUyJYonRlFAhLSGMpJWikaSmYdFEQl9L92yxf0/X2+5kOXudhDV3d/JySWhjEYbAMS3IofJYUEPuLYCm3wnJrBFkgAH8LeCF4uXe1myUUreXLXN8dFb44vXhl/J5fKKH4gEkOgBjEBsRV9sxtqt+39S+vCtiiq2nQ7ph74udgbl8gtsQHxBTXdQ0UHs+Q4ACHoc8vCT55bhrXXLDZ7pU9gp5DBbLVfm+2r1WpNlmYXZH2gkoGsDvqAi5hRivKpiSEAPfpgqFgnFRqARPX4cdeGau0UtMYdzBTpAyjwFDurQYUatfGq4bjeFs3ywTdO2Y4o2xwZbikyh39bvL2tVBY4AQSQ2BlKjDoMPR5/bG+bLWNoFHwkJYXxKWkEtsFoxIFe0QWF4n2NHHoYCRYAFPR/DPiDvyMsYo2fKqhwIv3QVtfvFzaHQuV14NONdTntFR3w4+W12ct1w3yHATDUeFkTTcs1dna9ousq12ozZJ7IZXmgaeVZaJQB9fXLujqoVSRpMKPPyfS9cWAcEodBDgp2QtON4fqqWVwPpf7vkfJf7AbGULQ0AAA=</t>
+          <t>BzMAAB+LCAAAAAAAAAPtWltvG8cV/isLPdkP1OySune8AUVKLlFSFEQqllIUwXJ3JG293GX3IolvbgDDTuOiQJO4dZq2cNGiF8SuXbRFALn5MYEly0/+Czkzs5fZCyVSVtC0kGHYO+c2M2dmzvnOcPA7h31L2ieuZzr2jSllWp6SiK07hmnv3pgK/J2SMjf1jopXDnVirWuu1ic+CEugZXtLh555Y2rP9wdLCB0cHEwfVKYddxeVZVlBW61mR98jfa1k2p6v2TqZirWM87WmVFwz+i3ia4bma1zzxlSj05iuEVOvA62l2doucaeXA8+0ieet2L7pm8Sjmi7RfFKrt97lE1PL03PTCkY5eiK5HJiWweVSkpweykG3pGv2iVqWlYWSvFCqKF1FXlIWl2Zmp+cqynuRYiyIm5rnd4i7b+qM0PG1/oCpywsVRZGVxZlZjAqFwFbiABW3LWOD7JseMWrEsryJPILCBazqPsx6MmfKGAm6oaGLD+Gmqw32uqZvkcmG0Wh2pL4djiUxouJVxyU6+O9CQ1ojB203dGt30ARud890/WFdG05sa9MjbntAnTSZqorrju1XLeL6mwNYa2LAVgCG6rsBwWgEM1Gqm54O36YdEEPd0SxPVEox8S3Hve0NNJ2swTlG1MaBbTmaARvONz3f1L3EQI6D111nACah92XHMlbBbDjEAkZsumGDj2m/y45zO2s9zcRsWdkCw6L2NT8Sz9FxZ885aNvWsBP0PN01e8SoL0fShTxMT2SoXQs83+nDKBIS5jSB0mqhIfyBQ5jl4DrRzb5mrVvgSE+tgKEUAVcD39kx/ZpjBX079miGim/BpLrkMJ5k3MZtWGCb+t2xG3Ykzz1dyEorbDgHcZ95BvODQK56erTP8oyscB1o0QrmOWxR6CxXTQtyhLgcAjW9MTp7hPiFu4JzMA2HqzTrqMtD2idGCQXD5oQdDlRVWVycL8kK/O3K8hL7Cz3HbLxiG+wDcsxcSSnTuJ3IRUy8FvTbPTjF+2xOqgK8DAnDLKxlS7NvA/WW6e+tVaPRF3Awn/NI+TwPw3kdWNqQkWO/iDTcsHUrMAgPAw17h21KOja+jCPZOEdqwsFWsWYPu8MBRGPPXPLh48YU5Oclz3cBAUypuhPYvjuk8QKjUPQ8HS/o2awDzRpbZ8clPwkAeAxXA1uvOcb4vRncO5u26Y8/QidweRAcX4V5j4bDwKsTGlhYqB9bX59kTp47kXjfJn3HNvXxvQ1OpqM3LjARLzpVggYasbfqZEcLLIA2PmSg3SS5ZMi46t3OyogkvOlaUXBQKXD0ADnqRn9ah9xK0dG07vQpAQFgu9XBSJSnAEEnK/ZuU7N3A0jB8QHM0uPQRLNH19Vsj04nzriZKFUshKMDzZGAyk95O2Ae46fcAS5GGTncJf2B42pWCxxjrobrE8IJyNQtzd8LWxD2LaJHTkaJaqyVHlk08PPEWPzm06AnI4wnGSITonPhGDWRSWiYzrIF+9eqaZbZc3n4ibJcEQ8WLMFOUaCik5sQR0VrAHUKJKYfkCEFr0kjpLMtq0QMvoFpxFE7GzML5Vm5MgdJn7Yxm/G1eu16nQwcz/S9JantQmWkuUNpGZYPNqdUc9zBkrQe9CxTX5JWt6QGnKpDYkDqYP4Kg/fbmRKN4NUoVLJBtmAjpwhpPuToXejFysnFjERebQFy27OGgiT3QdPRQfDNi/vHP/385MkfTn7zz5OHz968+PD4ya9PvvjqzYvPTh49fX3ns9cf//v08YPTDx6/PPrP8d0vjn/xJbDox93n9OOPD0+e3zt58MHrX/711fMj7h9uGXe1nkXY6LvLCwtyZQZ2a0zCdIkQg59GoPuMtr3NUGfcxmH1xBq1lUbtZnOZRaWYGKnzCI5oYTZ0gqTZ4TNmHbGNgaL9xEXUbhTlwnaKK2QElRZK+yQtLfJHKXJfvDr686ujJyO1Q4dlkA8gmjGQz0JOLkY+tADl9UVU3s6U5NlSuSwIZ2TwBlTpUE7EfmoYakWRF5VFqOPjjGDEJ6BIKMsKLXW1XZTR46QaRyPxFhDbEZMdki7x/JjNj43Q4E48+ddHp3//NCUVejekpK3A4BhqoJ2hqMFMr210pU57c6O2InVXOnSfJDxBjhs/QzjsPT584qbJH83UliqicnNnKmZ7vOk6wSAXVhJqgWRhgMlzM5rMN/mhJbwC+XDVPr9fpBDOpJ6AwfjGQKThFIeTBH54BB999fLLey+P/nT64T+O7/8KYt3rTx4f3/3o+NknKWthn3FRDRsYjonYjPczxLIwHWUo+FaHefa2/L6QfkIiLUjWHdP2PVWpVFgxEjYx6CrUHPsfN/qQEpll5jygZyj4+5q3cuiHR1ZdwyhNgIEONMjGTlK2xQQenRMnv/7t73gGOL33t+Of/eX4wcNXR78/ffqYn6eTT5+d/PxpGL+zIZ6NhRaDHCRK7HZBl+g5k2hul76+87FkO74EkEQKWKz5+s4jwRgdKAMviWWAfPFA0kPIiYrKVE8ShhKPIaUXq3CAUKPJqRJLhOnJGZh60sl7JWqK5nPGuNbolgKPSA6greswk7RwojyuXqjCk+X6vFxWyiGXj4ZOoad5gutvWk5Ps6SIwWr3jEhK62yFRJb1d7PZXq42ExE+CIA2UOrL9AKCfuAIctJk0fCiVrTVBApwARjqgUWvW3JieVZsWQhqKLy32Kka9BZblWV2MZDOfCkJXAtclwMjO7wK7wQDAMvRBddoPrv1E/DxGseyImJO2o16mg9tgQspLs2mBMZncSpk8ZjV8OgVCYe7a9Q1SRN4qZtCcEd4280x1L4JS4Jo4FlxXcctjD4JJxJrAdKGiIISj8cybE05KjeStYoIUcT7bqFz6Yfb3fq1TtD/nlQnOun3iHv9R5cI2UfY/z/E8Wd48grcXwK4XxjzWvMK3F+B+ytw/98E98pocK+8vyjPz/SIppWUeVIuzZBZubQoV/TSojJX2ZmrzCzuzJNi3F/+VnF/tIYFvxeMHsTYmetC2+GsLVqwwpcdLS//wu7sCHpOZDu/gkRnrOFVWXdV1l12Wafkyzr++0TmVwsIT4a6Xq53NuEwM6wgJLU8aKQ/CwlJL3lrxI3H7bAcILaxDvvdMaJy4F3NCiAGgNv4F0OWaq291ulW1yAVh79UZWwVmY5/i0yb3l6pbjS3JzOPxGlw6JktZgRq7NAk4lVd098DA6beHhD+c4kHoTEnF6vSojFRkoq0WF2ZLdHDqOJwBXLRMg3xSgOl4ijKpIxsOwpgIh0JJQsSighUVDKgVI2A3roeQCNx/GhONNIk4RRePBTko0K5Uei9UPh89J6F3IwyPiBHqTyF8oA7IaGRWBrlADMqBrcjyDmVePsXEot2VQw6ColRBwIMRBxzoDySRJdz84tEoCW/FdYbP9kjgYDyyTdNQqlsibKZUSQgIY2hgqSVoaF01kFhVEL/yxeGYd/f5RtDdJE7QnR5V4FCkqmbOzvbgAq3krdOEYGPOLFCGzy/5nAGEoCIsDfCB1GXu1kKkUuR3NUl9KSX0ONXyd/K/TRK3p0kcKhOLEBvkz4FjrRbzv6FdWFbTKra8NqWEfp5sqczsVsSA+J7bbqH3va5Nt+HVdcFkEHfdk78vjp6eLWh2bsTjoZPhSnSF0zQe4QBTNfzt2gyDb84ZTumbHMAtqWWOcra4u1tKDRC3AUSSDSPUuOMjrXPn807VtPsmxO+a5Kjs582As4cDDigaky2VWiRvEYOfYwEC5B8ez+GPM+f/k1ije9YqCRiffpK1TN39/xJBzbf04hBenJJ79EAYMgLpUVCKiVFgX81vVyW5Vn6xjU0DlHFJAcTdoKiBRNqs28A0fL5HQczAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed</t>
+          <t>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed [YTD(Sum; December)]</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -583,67 +583,1198 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>38899</v>
+        <v>35765</v>
       </c>
       <c r="B13" s="6">
-        <v>8577.837</v>
-      </c>
-      <c r="C13" s="6">
-        <v>64588.681</v>
-      </c>
+        <v>10520.935</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>38930</v>
+        <v>35796</v>
       </c>
       <c r="B14" s="6">
-        <v>8652.589</v>
+        <v>10905.421</v>
       </c>
       <c r="C14" s="6">
-        <v>73241.27</v>
+        <v>10905.421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>38961</v>
+        <v>35827</v>
       </c>
       <c r="B15" s="6">
-        <v>8395.337</v>
+        <v>10664.616</v>
       </c>
       <c r="C15" s="6">
-        <v>81636.607</v>
+        <v>21570.037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>38991</v>
+        <v>35855</v>
       </c>
       <c r="B16" s="6">
-        <v>8409.937</v>
+        <v>10890.205</v>
       </c>
       <c r="C16" s="6">
-        <v>90046.54399999999</v>
+        <v>32460.242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>39022</v>
+        <v>35886</v>
       </c>
       <c r="B17" s="6">
-        <v>8327.321</v>
+        <v>13340.355</v>
       </c>
       <c r="C17" s="6">
-        <v>98373.86500000001</v>
+        <v>45800.597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
+        <v>35916</v>
+      </c>
+      <c r="B18" s="6">
+        <v>11789.327</v>
+      </c>
+      <c r="C18" s="6">
+        <v>57589.924</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>35947</v>
+      </c>
+      <c r="B19" s="6">
+        <v>10906.912</v>
+      </c>
+      <c r="C19" s="6">
+        <v>68496.836</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>35977</v>
+      </c>
+      <c r="B20" s="6">
+        <v>10349.346</v>
+      </c>
+      <c r="C20" s="6">
+        <v>78846.182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>36008</v>
+      </c>
+      <c r="B21" s="6">
+        <v>11474.453</v>
+      </c>
+      <c r="C21" s="6">
+        <v>90320.63499999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>36039</v>
+      </c>
+      <c r="B22" s="6">
+        <v>12931.475</v>
+      </c>
+      <c r="C22" s="6">
+        <v>103252.11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>36069</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15519.389</v>
+      </c>
+      <c r="C23" s="6">
+        <v>118771.499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>36100</v>
+      </c>
+      <c r="B24" s="6">
+        <v>14584.826</v>
+      </c>
+      <c r="C24" s="6">
+        <v>133356.325</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>36130</v>
+      </c>
+      <c r="B25" s="6">
+        <v>13831.885</v>
+      </c>
+      <c r="C25" s="6">
+        <v>147188.21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>36161</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13631.491</v>
+      </c>
+      <c r="C26" s="6">
+        <v>13631.491</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>36192</v>
+      </c>
+      <c r="B27" s="6">
+        <v>13374.058</v>
+      </c>
+      <c r="C27" s="6">
+        <v>27005.549</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>36220</v>
+      </c>
+      <c r="B28" s="6">
+        <v>13198.682</v>
+      </c>
+      <c r="C28" s="6">
+        <v>40204.231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>36251</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13658.354</v>
+      </c>
+      <c r="C29" s="6">
+        <v>53862.585</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>36281</v>
+      </c>
+      <c r="B30" s="6">
+        <v>13432.189</v>
+      </c>
+      <c r="C30" s="6">
+        <v>67294.774</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>36312</v>
+      </c>
+      <c r="B31" s="6">
+        <v>13121.469</v>
+      </c>
+      <c r="C31" s="6">
+        <v>80416.243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>36342</v>
+      </c>
+      <c r="B32" s="6">
+        <v>13453.958</v>
+      </c>
+      <c r="C32" s="6">
+        <v>93870.201</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>36373</v>
+      </c>
+      <c r="B33" s="6">
+        <v>13779.761</v>
+      </c>
+      <c r="C33" s="6">
+        <v>107649.962</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>36404</v>
+      </c>
+      <c r="B34" s="6">
+        <v>13946.292</v>
+      </c>
+      <c r="C34" s="6">
+        <v>121596.254</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>36434</v>
+      </c>
+      <c r="B35" s="6">
+        <v>13810.39</v>
+      </c>
+      <c r="C35" s="6">
+        <v>135406.644</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>36465</v>
+      </c>
+      <c r="B36" s="6">
+        <v>13627.784</v>
+      </c>
+      <c r="C36" s="6">
+        <v>149034.428</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B37" s="6">
+        <v>13531.01</v>
+      </c>
+      <c r="C37" s="6">
+        <v>162565.438</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>36526</v>
+      </c>
+      <c r="B38" s="6">
+        <v>12587.286</v>
+      </c>
+      <c r="C38" s="6">
+        <v>12587.286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>36557</v>
+      </c>
+      <c r="B39" s="6">
+        <v>12280.073</v>
+      </c>
+      <c r="C39" s="6">
+        <v>24867.359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>36586</v>
+      </c>
+      <c r="B40" s="6">
+        <v>12545.269</v>
+      </c>
+      <c r="C40" s="6">
+        <v>37412.628</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>36617</v>
+      </c>
+      <c r="B41" s="6">
+        <v>13181.046</v>
+      </c>
+      <c r="C41" s="6">
+        <v>50593.674</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>36647</v>
+      </c>
+      <c r="B42" s="6">
+        <v>14587.857</v>
+      </c>
+      <c r="C42" s="6">
+        <v>65181.531</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>36678</v>
+      </c>
+      <c r="B43" s="6">
+        <v>14404.65</v>
+      </c>
+      <c r="C43" s="6">
+        <v>79586.181</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>36708</v>
+      </c>
+      <c r="B44" s="6">
+        <v>14105.613</v>
+      </c>
+      <c r="C44" s="6">
+        <v>93691.79399999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>36739</v>
+      </c>
+      <c r="B45" s="6">
+        <v>13515.51</v>
+      </c>
+      <c r="C45" s="6">
+        <v>107207.304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>36770</v>
+      </c>
+      <c r="B46" s="6">
+        <v>13107.167</v>
+      </c>
+      <c r="C46" s="6">
+        <v>120314.471</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>36800</v>
+      </c>
+      <c r="B47" s="6">
+        <v>13125.867</v>
+      </c>
+      <c r="C47" s="6">
+        <v>133440.338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>36831</v>
+      </c>
+      <c r="B48" s="6">
+        <v>12756.775</v>
+      </c>
+      <c r="C48" s="6">
+        <v>146197.113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B49" s="6">
+        <v>12405.029</v>
+      </c>
+      <c r="C49" s="6">
+        <v>158602.142</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>36892</v>
+      </c>
+      <c r="B50" s="6">
+        <v>12524.338</v>
+      </c>
+      <c r="C50" s="6">
+        <v>12524.338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>36923</v>
+      </c>
+      <c r="B51" s="6">
+        <v>12424.399</v>
+      </c>
+      <c r="C51" s="6">
+        <v>24948.737</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>36951</v>
+      </c>
+      <c r="B52" s="6">
+        <v>12680.886</v>
+      </c>
+      <c r="C52" s="6">
+        <v>37629.623</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>36982</v>
+      </c>
+      <c r="B53" s="6">
+        <v>12371.695</v>
+      </c>
+      <c r="C53" s="6">
+        <v>50001.318</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>37012</v>
+      </c>
+      <c r="B54" s="6">
+        <v>12013.787</v>
+      </c>
+      <c r="C54" s="6">
+        <v>62015.105</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>37043</v>
+      </c>
+      <c r="B55" s="6">
+        <v>11921.5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>73936.605</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>37073</v>
+      </c>
+      <c r="B56" s="6">
+        <v>11870.795</v>
+      </c>
+      <c r="C56" s="6">
+        <v>85807.39999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>37104</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11992.992</v>
+      </c>
+      <c r="C57" s="6">
+        <v>97800.39200000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>37135</v>
+      </c>
+      <c r="B58" s="6">
+        <v>12337.75</v>
+      </c>
+      <c r="C58" s="6">
+        <v>110138.142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>37165</v>
+      </c>
+      <c r="B59" s="6">
+        <v>11823.878</v>
+      </c>
+      <c r="C59" s="6">
+        <v>121962.02</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>37196</v>
+      </c>
+      <c r="B60" s="6">
+        <v>11421.875</v>
+      </c>
+      <c r="C60" s="6">
+        <v>133383.895</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B61" s="6">
+        <v>12410.305</v>
+      </c>
+      <c r="C61" s="6">
+        <v>145794.2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>37257</v>
+      </c>
+      <c r="B62" s="6">
+        <v>14143.866</v>
+      </c>
+      <c r="C62" s="6">
+        <v>14143.866</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>37288</v>
+      </c>
+      <c r="B63" s="6">
+        <v>14454.4</v>
+      </c>
+      <c r="C63" s="6">
+        <v>28598.266</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>37316</v>
+      </c>
+      <c r="B64" s="6">
+        <v>14487.501</v>
+      </c>
+      <c r="C64" s="6">
+        <v>43085.767</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>37347</v>
+      </c>
+      <c r="B65" s="6">
+        <v>15201.414</v>
+      </c>
+      <c r="C65" s="6">
+        <v>58287.181</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>37377</v>
+      </c>
+      <c r="B66" s="6">
+        <v>14835.42</v>
+      </c>
+      <c r="C66" s="6">
+        <v>73122.601</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>37408</v>
+      </c>
+      <c r="B67" s="6">
+        <v>13932.149</v>
+      </c>
+      <c r="C67" s="6">
+        <v>87054.75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>37438</v>
+      </c>
+      <c r="B68" s="6">
+        <v>13360.494</v>
+      </c>
+      <c r="C68" s="6">
+        <v>100415.244</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>37469</v>
+      </c>
+      <c r="B69" s="6">
+        <v>12588.175</v>
+      </c>
+      <c r="C69" s="6">
+        <v>113003.419</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>37500</v>
+      </c>
+      <c r="B70" s="6">
+        <v>12803.607</v>
+      </c>
+      <c r="C70" s="6">
+        <v>125807.026</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>37530</v>
+      </c>
+      <c r="B71" s="6">
+        <v>12629.137</v>
+      </c>
+      <c r="C71" s="6">
+        <v>138436.163</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>37561</v>
+      </c>
+      <c r="B72" s="6">
+        <v>12324.736</v>
+      </c>
+      <c r="C72" s="6">
+        <v>150760.899</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B73" s="6">
+        <v>12661.824</v>
+      </c>
+      <c r="C73" s="6">
+        <v>163422.723</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>37622</v>
+      </c>
+      <c r="B74" s="6">
+        <v>11655.43562</v>
+      </c>
+      <c r="C74" s="6">
+        <v>11655.43562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>37653</v>
+      </c>
+      <c r="B75" s="6">
+        <v>12037.334</v>
+      </c>
+      <c r="C75" s="6">
+        <v>23692.76962</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>37681</v>
+      </c>
+      <c r="B76" s="6">
+        <v>12251.145</v>
+      </c>
+      <c r="C76" s="6">
+        <v>35943.91462</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>37712</v>
+      </c>
+      <c r="B77" s="6">
+        <v>11842.512</v>
+      </c>
+      <c r="C77" s="6">
+        <v>47786.42662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>37742</v>
+      </c>
+      <c r="B78" s="6">
+        <v>11598.366</v>
+      </c>
+      <c r="C78" s="6">
+        <v>59384.79262</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>37773</v>
+      </c>
+      <c r="B79" s="6">
+        <v>11356.706</v>
+      </c>
+      <c r="C79" s="6">
+        <v>70741.49862</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>37803</v>
+      </c>
+      <c r="B80" s="6">
+        <v>11564.16081</v>
+      </c>
+      <c r="C80" s="6">
+        <v>82305.65943</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>37834</v>
+      </c>
+      <c r="B81" s="6">
+        <v>11313.99968</v>
+      </c>
+      <c r="C81" s="6">
+        <v>93619.65910999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>37865</v>
+      </c>
+      <c r="B82" s="6">
+        <v>11020.5236</v>
+      </c>
+      <c r="C82" s="6">
+        <v>104640.18271</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>37895</v>
+      </c>
+      <c r="B83" s="6">
+        <v>10985.90409</v>
+      </c>
+      <c r="C83" s="6">
+        <v>115626.0868</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>37926</v>
+      </c>
+      <c r="B84" s="6">
+        <v>10711.68849</v>
+      </c>
+      <c r="C84" s="6">
+        <v>126337.77529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B85" s="6">
+        <v>10569.38053</v>
+      </c>
+      <c r="C85" s="6">
+        <v>136907.15582</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>37987</v>
+      </c>
+      <c r="B86" s="6">
+        <v>10551.31489</v>
+      </c>
+      <c r="C86" s="6">
+        <v>10551.31489</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>38018</v>
+      </c>
+      <c r="B87" s="6">
+        <v>10532.51501</v>
+      </c>
+      <c r="C87" s="6">
+        <v>21083.8299</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>38047</v>
+      </c>
+      <c r="B88" s="6">
+        <v>10359.05901</v>
+      </c>
+      <c r="C88" s="6">
+        <v>31442.88891</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>38078</v>
+      </c>
+      <c r="B89" s="6">
+        <v>10308.585</v>
+      </c>
+      <c r="C89" s="6">
+        <v>41751.47391</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>38108</v>
+      </c>
+      <c r="B90" s="6">
+        <v>9935.673989999999</v>
+      </c>
+      <c r="C90" s="6">
+        <v>51687.1479</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>38139</v>
+      </c>
+      <c r="B91" s="6">
+        <v>9639.422</v>
+      </c>
+      <c r="C91" s="6">
+        <v>61326.5699</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>38169</v>
+      </c>
+      <c r="B92" s="6">
+        <v>9445.102999999999</v>
+      </c>
+      <c r="C92" s="6">
+        <v>70771.67290000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>38200</v>
+      </c>
+      <c r="B93" s="6">
+        <v>9240.195</v>
+      </c>
+      <c r="C93" s="6">
+        <v>80011.8679</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>38231</v>
+      </c>
+      <c r="B94" s="6">
+        <v>9054.679</v>
+      </c>
+      <c r="C94" s="6">
+        <v>89066.5469</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>38261</v>
+      </c>
+      <c r="B95" s="6">
+        <v>8905.602989999999</v>
+      </c>
+      <c r="C95" s="6">
+        <v>97972.14989</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>38292</v>
+      </c>
+      <c r="B96" s="6">
+        <v>8661.446</v>
+      </c>
+      <c r="C96" s="6">
+        <v>106633.59589</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B97" s="6">
+        <v>8586.74899</v>
+      </c>
+      <c r="C97" s="6">
+        <v>115220.34488</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>38353</v>
+      </c>
+      <c r="B98" s="6">
+        <v>8849.361000000001</v>
+      </c>
+      <c r="C98" s="6">
+        <v>8849.361000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>38384</v>
+      </c>
+      <c r="B99" s="6">
+        <v>8630.066000000001</v>
+      </c>
+      <c r="C99" s="6">
+        <v>17479.427</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>38412</v>
+      </c>
+      <c r="B100" s="6">
+        <v>8523.85399</v>
+      </c>
+      <c r="C100" s="6">
+        <v>26003.28099</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>38443</v>
+      </c>
+      <c r="B101" s="6">
+        <v>8433.32899</v>
+      </c>
+      <c r="C101" s="6">
+        <v>34436.60998</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>38473</v>
+      </c>
+      <c r="B102" s="6">
+        <v>8301.61499</v>
+      </c>
+      <c r="C102" s="6">
+        <v>42738.22497</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>38504</v>
+      </c>
+      <c r="B103" s="6">
+        <v>9250.043</v>
+      </c>
+      <c r="C103" s="6">
+        <v>51988.26797</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>38534</v>
+      </c>
+      <c r="B104" s="6">
+        <v>9270.313</v>
+      </c>
+      <c r="C104" s="6">
+        <v>61258.58097</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>38565</v>
+      </c>
+      <c r="B105" s="6">
+        <v>9378.495999999999</v>
+      </c>
+      <c r="C105" s="6">
+        <v>70637.07696999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>38596</v>
+      </c>
+      <c r="B106" s="6">
+        <v>9459.084000000001</v>
+      </c>
+      <c r="C106" s="6">
+        <v>80096.16097</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>38626</v>
+      </c>
+      <c r="B107" s="6">
+        <v>9390.536</v>
+      </c>
+      <c r="C107" s="6">
+        <v>89486.69697</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>38657</v>
+      </c>
+      <c r="B108" s="6">
+        <v>9728.17</v>
+      </c>
+      <c r="C108" s="6">
+        <v>99214.86697</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B109" s="6">
+        <v>9680.205</v>
+      </c>
+      <c r="C109" s="6">
+        <v>108895.07197</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>38718</v>
+      </c>
+      <c r="B110" s="6">
+        <v>9781.102999999999</v>
+      </c>
+      <c r="C110" s="6">
+        <v>9781.102999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>38749</v>
+      </c>
+      <c r="B111" s="6">
+        <v>9693.808999999999</v>
+      </c>
+      <c r="C111" s="6">
+        <v>19474.912</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>38777</v>
+      </c>
+      <c r="B112" s="6">
+        <v>9522.036</v>
+      </c>
+      <c r="C112" s="6">
+        <v>28996.948</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5">
+        <v>38808</v>
+      </c>
+      <c r="B113" s="6">
+        <v>9173.055</v>
+      </c>
+      <c r="C113" s="6">
+        <v>38170.003</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5">
+        <v>38838</v>
+      </c>
+      <c r="B114" s="6">
+        <v>9167.385</v>
+      </c>
+      <c r="C114" s="6">
+        <v>47337.388</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5">
+        <v>38869</v>
+      </c>
+      <c r="B115" s="6">
+        <v>8673.456</v>
+      </c>
+      <c r="C115" s="6">
+        <v>56010.844</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5">
+        <v>38899</v>
+      </c>
+      <c r="B116" s="6">
+        <v>8577.837</v>
+      </c>
+      <c r="C116" s="6">
+        <v>64588.681</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5">
+        <v>38930</v>
+      </c>
+      <c r="B117" s="6">
+        <v>8652.589</v>
+      </c>
+      <c r="C117" s="6">
+        <v>73241.27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5">
+        <v>38961</v>
+      </c>
+      <c r="B118" s="6">
+        <v>8395.337</v>
+      </c>
+      <c r="C118" s="6">
+        <v>81636.607</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5">
+        <v>38991</v>
+      </c>
+      <c r="B119" s="6">
+        <v>8409.937</v>
+      </c>
+      <c r="C119" s="6">
+        <v>90046.54399999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5">
+        <v>39022</v>
+      </c>
+      <c r="B120" s="6">
+        <v>8327.321</v>
+      </c>
+      <c r="C120" s="6">
+        <v>98373.86500000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5">
         <v>39052</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B121" s="6">
         <v>7869.824</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C121" s="6">
         <v>106243.689</v>
       </c>
     </row>
@@ -651,48 +1782,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>18</EndRow>
-          <EndCol>2</EndCol>
-          <Name>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed</Name>
-          <DisplayName>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed</DisplayName>
-          <SeriesId>310919001</SeriesId>
-          <Code>SR4825036</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>18</EndRow>
-          <EndCol>3</EndCol>
-          <Name>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed</Name>
-          <DisplayName>(DC)Deposits: Ordinary Banking Corp: Public: FX Indexed</DisplayName>
-          <SeriesId>310919001</SeriesId>
-          <Code>SR4825036</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5A1A00-5717-464A-B093-44EC69BEA366}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>